--- a/biology/Botanique/Cynodon_(genre_végétal)/Cynodon_(genre_végétal).xlsx
+++ b/biology/Botanique/Cynodon_(genre_végétal)/Cynodon_(genre_végétal).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cynodon_(genre_v%C3%A9g%C3%A9tal)</t>
+          <t>Cynodon_(genre_végétal)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cynodon est un genre de plantes monocotylédones de la famille des Poaceae (graminées), sous-famille des Chloridoideae, originaire des régions tropicales et subtropicales, qui comprend une dizaine d'espèces.
 Ce sont des plantes herbacées vivaces, rhizomateuses ou stolonifères aux tiges pouvant atteindre de 60 à 100 cm de long, et au aux inflorescences digitées ou subdigitées composées de racèmes spiciformes.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cynodon_(genre_v%C3%A9g%C3%A9tal)</t>
+          <t>Cynodon_(genre_végétal)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom scientifique du genre Cynodon vient du grec kuν, kun, « chien » et ὀδον, odon, « dent ». Se traduisant littéralement par « dent de chien », il fait référence aux feuilles pointues de la plante ou au rhizome qui porte de fins bourgeons blancs, aigus et recourbés, évoquant plus ou moins bien des canines de chiens[3]. Le nom vernaculaire de chiendent rappelle ce caractère[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique du genre Cynodon vient du grec kuν, kun, « chien » et ὀδον, odon, « dent ». Se traduisant littéralement par « dent de chien », il fait référence aux feuilles pointues de la plante ou au rhizome qui porte de fins bourgeons blancs, aigus et recourbés, évoquant plus ou moins bien des canines de chiens. Le nom vernaculaire de chiendent rappelle ce caractère.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cynodon_(genre_v%C3%A9g%C3%A9tal)</t>
+          <t>Cynodon_(genre_végétal)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (28 mars 2018)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (28 mars 2018) :
 Cynodon aethiopicus Clayton &amp; Harlan
 Cynodon barberi Rang. &amp; Tadul.
 Cynodon coursii A.Camus
